--- a/files/ontology_template.xlsx
+++ b/files/ontology_template.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philippe\Documents\GitHub\info6540-book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philippe\Documents\GitHub\info6540-book\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D45CF570-13D9-4F01-A9BF-97FDC37FFD83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53649352-FF21-4A8C-9A36-5A74E31A5D81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BD0CD5ED-11C4-459C-A933-7CB7414164C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD0CD5ED-11C4-459C-A933-7CB7414164C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Classes" sheetId="1" r:id="rId1"/>
-    <sheet name="Individuals" sheetId="2" r:id="rId2"/>
-    <sheet name="Relationships" sheetId="3" r:id="rId3"/>
-    <sheet name="Triples" sheetId="4" r:id="rId4"/>
+    <sheet name="Description" sheetId="6" r:id="rId1"/>
+    <sheet name="Classes" sheetId="1" r:id="rId2"/>
+    <sheet name="Individuals" sheetId="2" r:id="rId3"/>
+    <sheet name="Relationships" sheetId="3" r:id="rId4"/>
+    <sheet name="Triples" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Pizza</t>
   </si>
@@ -124,14 +125,31 @@
   </si>
   <si>
     <t>Inverse_relationship</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Description of your ontology</t>
+  </si>
+  <si>
+    <t>This is a pizza ontology that represents the menu of my favorite pizza in Montréal. It is limited to the pizza items on the menu (poutine and pizzaghetti are sadly left out), and describes the ingredients that composes each of those items.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,16 +177,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,168 +511,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B45DBF-3B30-4197-A6B7-1B2BA365EF18}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FF2588-3C26-4A00-AF8F-643D3907B1F3}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0C754B-7A59-4260-9554-54FFD192844E}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B45DBF-3B30-4197-A6B7-1B2BA365EF18}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:C8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="B6" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -653,72 +609,105 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AF2114-E913-4A8F-99F0-9BB7167D9EB1}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0C754B-7A59-4260-9554-54FFD192844E}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -727,69 +716,152 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AF2114-E913-4A8F-99F0-9BB7167D9EB1}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DD49A9-0830-4B7D-8428-F99DF43F08E0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
     </row>

--- a/files/ontology_template.xlsx
+++ b/files/ontology_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philippe\Documents\GitHub\info6540-book\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philippe\Documents\GitHub\info6540\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1C4196-D714-4A5F-A82D-C1B202754A56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81D1BED1-FC31-4085-8F2E-90ED896C389F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD0CD5ED-11C4-459C-A933-7CB7414164C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BD0CD5ED-11C4-459C-A933-7CB7414164C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>Pizza</t>
+  </si>
   <si>
     <t>Class</t>
   </si>
@@ -46,6 +49,12 @@
     <t>Class_id</t>
   </si>
   <si>
+    <t>Topping</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
     <t>Individual_id</t>
   </si>
   <si>
@@ -58,12 +67,63 @@
     <t>Relationship</t>
   </si>
   <si>
+    <t>has_topping</t>
+  </si>
+  <si>
+    <t>has_base</t>
+  </si>
+  <si>
     <t>Subject_id</t>
   </si>
   <si>
     <t>Object_id</t>
   </si>
   <si>
+    <t>has_sauce</t>
+  </si>
+  <si>
+    <t>has_cheese</t>
+  </si>
+  <si>
+    <t>Hawaiian</t>
+  </si>
+  <si>
+    <t>Canadian</t>
+  </si>
+  <si>
+    <t>Chicken Alfredo</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Chicago style</t>
+  </si>
+  <si>
+    <t>Mozzarella</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Sauce</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>is_topping_of</t>
+  </si>
+  <si>
+    <t>is_base_of</t>
+  </si>
+  <si>
+    <t>is_sauce_of</t>
+  </si>
+  <si>
+    <t>is_cheese_of</t>
+  </si>
+  <si>
     <t>Inverse_relationship</t>
   </si>
   <si>
@@ -71,6 +131,9 @@
   </si>
   <si>
     <t>Description of your ontology</t>
+  </si>
+  <si>
+    <t>This is a pizza ontology that represents the menu of my favorite pizza in Montréal. It is limited to the pizza items on the menu (poutine and pizzaghetti are sadly left out), and describes the ingredients that composes each of those items.</t>
   </si>
 </sst>
 </file>
@@ -452,21 +515,23 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -479,44 +544,64 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -531,57 +616,99 @@
       <selection activeCell="A2" sqref="A2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -592,51 +719,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AF2114-E913-4A8F-99F0-9BB7167D9EB1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -649,46 +800,70 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
